--- a/StructureDefinition-ext-R5-Coverage.costToBeneficiary.xlsx
+++ b/StructureDefinition-ext-R5-Coverage.costToBeneficiary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,15 +413,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The types of services to which patient copayments are specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-coverage-copay-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -463,12 +454,6 @@
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-benefitcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:network</t>
   </si>
   <si>
@@ -500,9 +485,6 @@
     <t>Extension.extension:network.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-network-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:unit</t>
   </si>
   <si>
@@ -534,9 +516,6 @@
     <t>Extension.extension:unit.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-unit-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:term</t>
   </si>
   <si>
@@ -566,9 +545,6 @@
   </si>
   <si>
     <t>Extension.extension:term.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-term-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:value</t>
@@ -607,7 +583,7 @@
     <t>Extension.extension:value.value[x]</t>
   </si>
   <si>
-    <t>Quantity {SimpleQuantity|4.0.1}
+    <t>Quantity {SimpleQuantity}
 Money</t>
   </si>
   <si>
@@ -671,12 +647,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-coverage-financial-exception-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:exception.extension:period</t>
@@ -1080,8 +1050,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2003,43 +1973,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -2047,13 +2017,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2078,16 +2048,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2156,7 +2126,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2259,7 +2229,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2364,7 +2334,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2407,7 +2377,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2469,7 +2439,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2498,13 +2468,13 @@
         <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2530,11 +2500,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2552,7 +2524,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2564,7 +2536,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2572,13 +2544,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2603,14 +2575,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2679,7 +2651,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2782,7 +2754,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2887,7 +2859,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2930,7 +2902,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2992,7 +2964,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -3021,10 +2993,10 @@
         <v>125</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3051,11 +3023,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3073,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3085,7 +3059,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -3093,13 +3067,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3124,14 +3098,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3200,7 +3174,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3303,7 +3277,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3408,7 +3382,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3451,7 +3425,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3513,7 +3487,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3542,10 +3516,10 @@
         <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3572,11 +3546,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3594,7 +3570,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3606,7 +3582,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3614,13 +3590,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3645,14 +3621,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3721,7 +3697,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3824,7 +3800,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3929,7 +3905,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3972,7 +3948,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4034,7 +4010,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4063,10 +4039,10 @@
         <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4093,11 +4069,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4115,7 +4093,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4127,7 +4105,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4135,13 +4113,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4166,16 +4144,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4222,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4347,7 +4325,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4452,7 +4430,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4495,7 +4473,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4557,7 +4535,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4583,16 +4561,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4642,7 +4620,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4654,7 +4632,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>122</v>
@@ -4662,13 +4640,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4693,14 +4671,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4769,7 +4747,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -4872,7 +4850,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -4975,7 +4953,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>109</v>
@@ -5006,14 +4984,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5082,10 +5060,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5185,10 +5163,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5290,10 +5268,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5333,7 +5311,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5395,10 +5373,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5424,10 +5402,10 @@
         <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5454,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -5478,7 +5456,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5490,7 +5468,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>122</v>
@@ -5498,13 +5476,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5529,14 +5507,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5605,10 +5583,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5708,10 +5686,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5813,10 +5791,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5856,7 +5834,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5918,10 +5896,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5944,13 +5922,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6001,7 +5979,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6013,7 +5991,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>122</v>
@@ -6021,7 +5999,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6064,7 +6042,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6126,7 +6104,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -6152,13 +6130,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6209,7 +6187,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6221,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>122</v>
@@ -6334,10 +6312,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6360,13 +6338,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6417,7 +6395,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -6429,7 +6407,7 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>122</v>
